--- a/data/hotels_by_city/Dallas/Dallas_shard_215.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_215.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Todd N</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Check in was easy...management and staff were awesome.  Room was clean and good value for price.  Location was convenient to airport and trains.  The airport was adequate but wait times can be long during peak times when picking up at the airport.More</t>
   </si>
   <si>
+    <t>Brenda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r582544480-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Oh man. Where do I begin? We walked into our room and it felt like a time machine taking us back to 1925. First, Everything is out of date. The Kitchen is old and all the cabinets have some sort of stain. Second, the room. We arrived around 12am, and man, how lucky were we. We checked in and brought everything to our rooms and after realizing we where in 1925, we decided to settle down for the night anyway. We pulled out the couch and looked for sheets and there were none in the room. And then to our dismay, the office itself was vacant. I mean what kind of a hotel closed it’s office? I have never been to a hotel which didn’t have at least one person in the office at all times. Anyway, we weren’t able to get sheets. This was around 12:20am when we looked. The kitchen comes with absolutely nothing. And even if it did come with utensils or anything, I wouldn’t trust it. The room itself smelled weird and just felt really old. The desk was placed weirdly and there was a random bulging square popping out randomly in the living room. It turned out that it was the TV in the bedroom which was poorly placed. The room was just poorly designed. Anyway, I have stayed in other extended stays, like the one in a Boston and it was very nice. But...Oh man. Where do I begin? We walked into our room and it felt like a time machine taking us back to 1925. First, Everything is out of date. The Kitchen is old and all the cabinets have some sort of stain. Second, the room. We arrived around 12am, and man, how lucky were we. We checked in and brought everything to our rooms and after realizing we where in 1925, we decided to settle down for the night anyway. We pulled out the couch and looked for sheets and there were none in the room. And then to our dismay, the office itself was vacant. I mean what kind of a hotel closed it’s office? I have never been to a hotel which didn’t have at least one person in the office at all times. Anyway, we weren’t able to get sheets. This was around 12:20am when we looked. The kitchen comes with absolutely nothing. And even if it did come with utensils or anything, I wouldn’t trust it. The room itself smelled weird and just felt really old. The desk was placed weirdly and there was a random bulging square popping out randomly in the living room. It turned out that it was the TV in the bedroom which was poorly placed. The room was just poorly designed. Anyway, I have stayed in other extended stays, like the one in a Boston and it was very nice. But this one, I wouldn’t tell my worst enemy to stay here.More</t>
   </si>
   <si>
+    <t>grunst08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r580913213-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>I would give a no star rating if I was able. The service received has been horrendous as well as finding bed bugs inside the room. Our groceries went bad and on top of it I spent roughly 7 hours training to get money back as they moved us to a different location and charged us more money. Michael Howard, the district manager chooses not to assist his guest and make their stay pleasant but to cause them to spend more time and more money to be able to pay his 100k salary. Feel free to use Airbnb as extended stay is not a good experience.More</t>
   </si>
   <si>
+    <t>290clarisas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r568202500-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>The young lady at the front desk is the only reason I did not rate this hotel as "Terrible." The only reason I stayed here was because all other hotels were booked. I arrived at 1am and when I went to sleep, I noticed old stains on the sheets. I believe they were washed; however, if you cannot get blood or food stains out, you should replace them. I slept on my jacket laid out on the bed. I was only there for a few hours.More</t>
   </si>
   <si>
+    <t>Cmouse92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r557820872-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>We got a full suite with a kitchen for about 90$ a night. We looked at the pictures online of what the hotel looked like and it looked really nice! This location however did not look like those cute pictures. Also you only get house keeping if you’re here for more than a week, we’ve been here more than a week and no housekeeping showed up on the day they were supposed to. The breakfast at this location has no fruit, like in the pictures, so buy yourself some if staying here. There is free wifi, it’s not bad but if you want it faster you have to pay more. Basically you get what you pay for, it’s not terrible, but not what you expect from researching the hotel. More</t>
   </si>
   <si>
+    <t>182cherylt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r557672607-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Great place to stay. Accommodations reasonable and rooms are updated. My only complaint was the soda machine was out of order. Get two machines.  I had to walk to get something to drink. The young lady at the desk provided us with water, but I need a coke after my run in with Motel 6. Don't stay at Motel 6 across from Extended Stay. Customer service is horrible. I will never making reservations again Booking.com!More</t>
   </si>
   <si>
+    <t>Vijay R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r556926665-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>i stayed in extended stay america 7825 heathrow dr, irving texas, i liked ut very much, manager Tamim is extremely helpful and from yhe start  end, he took care of my me and family very much, he is very knowledgeable and he is vrry prompt in service, because of his service i will stay and recommend this hotel to my business partners, it is very clean and all services and friendly atmosphere.More</t>
   </si>
   <si>
+    <t>821olympias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r556870701-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -363,6 +387,9 @@
     <t>The staff is wonderful.. The rooms are clean .. The beds are comfortable.. Everything in the room works..my kids and husband love it.. They get in the room shower.. Kick their feet up fight over tv shows and im able to cook and save money while enjoying my familyMore</t>
   </si>
   <si>
+    <t>keithbG193RP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r556524793-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>Stay was good, property was quiet, car and personal belongings where never disturbed. Good safe place to stay and was very close to the work site, close enough to be walking distance if needed. I will be back soon to stay again!More</t>
   </si>
   <si>
+    <t>richardbK7947SW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r554897494-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>good  hotel  for the  value.  clean  rooms,  close to the airport  and   on time  shuttle  service.  Excellent  stff,  and  attend to your  needs  timely. Took  care of   any problems  that were encountered.  good  coffee  and  rolls in   the morning.More</t>
   </si>
   <si>
+    <t>984dougk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r554708899-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -438,6 +471,9 @@
     <t>This hotel provided a low price basic option served my needs. They had a room available at the last minute and all of the surrounding hotels seemed to be booked.  I was grateful they had a room available.More</t>
   </si>
   <si>
+    <t>mlandiak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r554112026-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -462,6 +498,9 @@
     <t>They say they have a shuttle, but they don't. They use a service that stops at every terminal and 8 different hotels.  Waited 25 minutes for them to show up then ended up taking a cab because it would've taken another 25 min to get there. Take Uber.Got to hotel. Door locked.  Called and knocked for over 20 minutes. No sign of clerk. 2 other customers also waiting.  Called front desk # constantly and eventually rang through to answering service who couldn't reach the clerk either. We actually got worried and called the police, then she appears.Let us in with no explanation, no apology and no attempts to make it right. Horrifically bad customer service person to have on the front line.Room was fair. Wash cloths and hand towels were old and dirty. Too gross to use. Makes you think the entire place is unclean.Had OK experiences at other Extended Stay Hotels, but I'll never stay here again. You shouldn't either.More</t>
   </si>
   <si>
+    <t>thunderbooboo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r541466179-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -489,6 +528,9 @@
     <t>Come into town frequently as my company suggest this extended stay for 3 months assignments. Nice place to stay, all amenities you need to feel like home away from home. great location, awesome staff always so friendly and nice to make you feel welcomedMore</t>
   </si>
   <si>
+    <t>lindagT7260MW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r541051862-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -507,6 +549,9 @@
     <t>This had to be one the friendliest places I have been to. I received star service from the time I arrived. I was accommodated with the lowest floor due to my disability and limited walking. I recommend this to any and everyone. Very reasonable rates and outstanding service.More</t>
   </si>
   <si>
+    <t>Fern P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r539989609-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -531,6 +576,9 @@
     <t>the lady that checked me in was on the phone preoccupied with her personal problems and paid very little attention to me... she just went through the motions like a robot and I was glad to get my room key and finish up with herMore</t>
   </si>
   <si>
+    <t>CGray5858</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r536738882-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -558,6 +606,9 @@
     <t>Nice but would think twice about staying again. Friendly staff but expected a free continental breakfast and only received snacks coffee and tea. I do not eat or drink any of those. No hair dryer in bathroom and problems keeping the room a comfortable temperature.More</t>
   </si>
   <si>
+    <t>DrillSGTA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r533638468-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -582,6 +633,9 @@
     <t>I travel extensively for the military and this one isn't bad.  Trust me, I've stayed in a few ESA's that I swear were transient motels, but this one was okay.  Maybe because it is far out and off the bus route. I expected to hear a lot of airplane noise, being right by the airport, but it wasn't bad at all.More</t>
   </si>
   <si>
+    <t>mikeladd001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r529740448-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -606,6 +660,9 @@
     <t>This extended stay is awful. The staff is very rude. Asking for anything for your room was like pulling teeth. Also, the staff has their family and friends come hangout with them during their shift. They also don’t like to be interrupted when talking on their cell phone at the front desk. Also, asking for the manager and I don’t know who that is because everytime I asked who the manager’s name was and when will they be in I was told they didn’t know.  When I ask for towels for my room there was none available. Like what hotel runs out of towels? Ask for toilet paper they were out! Seriously?!  So finally after a miserable stay I ask for a cart to move my stuff out the lady who worked 2nd shift on 10/01/17 was on her cell phone laughing and gossiping at the front desk asked her for one she rudely tells me she don’t know where one is and I will have to look around for one! Like seriously how about you get off your cell phone and look for it she laughed at me and then walked in the back office. So now I have written a official complaint and emailed to their VP. After calling there corporate number and speaking to someone who handles complaints apparently I am not the only one who has submitted complaints recently and they said they will be looking...This extended stay is awful. The staff is very rude. Asking for anything for your room was like pulling teeth. Also, the staff has their family and friends come hangout with them during their shift. They also don’t like to be interrupted when talking on their cell phone at the front desk. Also, asking for the manager and I don’t know who that is because everytime I asked who the manager’s name was and when will they be in I was told they didn’t know.  When I ask for towels for my room there was none available. Like what hotel runs out of towels? Ask for toilet paper they were out! Seriously?!  So finally after a miserable stay I ask for a cart to move my stuff out the lady who worked 2nd shift on 10/01/17 was on her cell phone laughing and gossiping at the front desk asked her for one she rudely tells me she don’t know where one is and I will have to look around for one! Like seriously how about you get off your cell phone and look for it she laughed at me and then walked in the back office. So now I have written a official complaint and emailed to their VP. After calling there corporate number and speaking to someone who handles complaints apparently I am not the only one who has submitted complaints recently and they said they will be looking into this location. The corporate office has moved me to a better location where staff is friendly and take great care of their customers and I am pleased. They also gave 3 nights for free and discount for the rest of my stay at the new location I am at. I hope they really take care of the business there because people are wasting their money for a horrible experience!More</t>
   </si>
   <si>
+    <t>joncW6225PC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r504177793-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -633,6 +690,9 @@
     <t>-Maid service did not provide towels, toilet paper or empty trash (All promised to us at reservation).-Front staff is horribly unfriendly, intolerant and rude (if they even show up). At one point I waited for an hour for staff for the front desk.-We requested towels and toilet paper THREE times and no one ever brought it. (eventually we bought our own).-One of the hotel towels had a brown stain.-Every time I requested anything or asked a question the front desk agents were rude. I'm not exaggerating. I'm extremely tolerant and understanding of customer service woes, but this place's culture seems to be centered around bare minimum (If That). Do not stay here.More</t>
   </si>
   <si>
+    <t>rameshk553</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r501901503-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -657,6 +717,9 @@
     <t>Was first assigned a room that was already occupied. When that was brought to the attention to the registration desk, was assigned a room that was also occupied. Third time was the charm, I guess. All in all a VERY unpleasant experience. More</t>
   </si>
   <si>
+    <t>forrestagnew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r508611535-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -684,12 +747,18 @@
     <t>i could stay anywhere, at almost 4 times the rate, as this is a covered expense....yet this location is "home". they give a 5-star experience yet charge 25% of the price...consistantly...which is why I stay here almost 250 nights per yr going on 4 yrsMore</t>
   </si>
   <si>
+    <t>justinrN189ZA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r497420828-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
     <t>497420828</t>
   </si>
   <si>
+    <t>Sherri A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r496021953-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -717,6 +786,9 @@
     <t>Our stay was the worst ever! Water had to be shut off a few times...electricity was off for a day...last but not least, cable is off NOW since yesterday with no explanation or estimated time on when it'll be turned back on!!! People are sitting outside in lawn chairs cause there's nothing else to do!! Management needs to do something about this, it's not good business!! This has been our temporary home for a year now....when we're finally able to leave for good, i will tell any and everybody i know, do yourself a favor, PLEASE DO NOT STAY AT EXTENDED STAY AMERICA!!!!More</t>
   </si>
   <si>
+    <t>mirandak507</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r495440290-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -741,6 +813,9 @@
     <t>Check in process took forever, no housekeeping services for entire stay and I stayed 7 nights. Over authorized my credit card and never seemed to have clean towels or toiletries. Only positive thing they have going is that they are close to the airportMore</t>
   </si>
   <si>
+    <t>guestfromGranbury</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r495037591-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -765,6 +840,9 @@
     <t>I got a good room for a good price. It comes with full size refrigerator, microwave oven &amp; cook top.   If you're looking for a breakfast with your stay, these are not the hotels to stay at.  You get coffee &amp; maybe a muffin or granola bar.More</t>
   </si>
   <si>
+    <t>carrieo805</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r492803215-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
     <t>I stay at this property frequently and love it here, the manager Jami is outstanding and does whatever it takes to make you happy, and the whole staff is great. I have never had any issues at all at this location and will continues to stay here when I come into town.More</t>
   </si>
   <si>
+    <t>beka56459</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r473839045-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -832,6 +913,9 @@
   </si>
   <si>
     <t>Beware! Reservations not honored by this facility!  We had made a reservation several days in advance.  I called to confirm our reservation and I called on the day of the reservation to let the staff know that we would be a late arrival. I arrived at the hotel with my family and was told by staff that even though I had reserved with a credit card that they filled rooms first come first serve, they over book.  Another family arrived from the airport the same time as we did and their reservation was not honored either.  They were stuck with no transportation and all the other area hotels were filled.  We had to drive an hour away to get another room.  I will never stay at another property managed by this corporation.  I have never arrived at a hotel to be told that my reservation was not honored. I wonder how many other people they have stranded right out of the airport.  Luckily we were driving and were able to leave.  More</t>
+  </si>
+  <si>
+    <t>agirlwhotravels365</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r469929649-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
@@ -855,6 +939,9 @@
   <si>
     <t>Booked a night here for my husband and I this week.  When we got to the room, we started looking at the bed sheets and they had hair all over them, as if someone had slept in the sheets and they had not been washed.  We asked the lady at the front desk for a new set of clean sheets, totally willing to change them ourselves, but instead she put us in a different room... seemed extra nice.  We moved into our new room, and the sheets looked better; however, when I went to go to the bathroom, the toilet seat was dirty - leftover something from when someone else had used it, as well as what looked like toothpaste? smeared on it.  I had to wet some toilet paper and clean it myself just to use it without getting anything on me.  (Just a side note, not once did we see any cleaning staff during our stay.)
 The next morning, we got up and took our stuff down to the front lobby to check out.  However, the lobby room was locked and there was no one at the front desk.  The shuttle was supposed to pick us up at 4:55 a.m., and at this point (due to waiting) it was about 5:00 a.m..  We knocked and knocked and called the front desk phone, but no one came.  Eventually I turn around to see a man, who turned out to...Booked a night here for my husband and I this week.  When we got to the room, we started looking at the bed sheets and they had hair all over them, as if someone had slept in the sheets and they had not been washed.  We asked the lady at the front desk for a new set of clean sheets, totally willing to change them ourselves, but instead she put us in a different room... seemed extra nice.  We moved into our new room, and the sheets looked better; however, when I went to go to the bathroom, the toilet seat was dirty - leftover something from when someone else had used it, as well as what looked like toothpaste? smeared on it.  I had to wet some toilet paper and clean it myself just to use it without getting anything on me.  (Just a side note, not once did we see any cleaning staff during our stay.)The next morning, we got up and took our stuff down to the front lobby to check out.  However, the lobby room was locked and there was no one at the front desk.  The shuttle was supposed to pick us up at 4:55 a.m., and at this point (due to waiting) it was about 5:00 a.m..  We knocked and knocked and called the front desk phone, but no one came.  Eventually I turn around to see a man, who turned out to be an employee, slowly coming down the hallway, seeming as if he had been sleeping in one of the rooms.  He did not respond to any of my questions at first, and when I nicely asked for clarification on what he was doing (there was some confusion due to lack of communication), he responded extremely rude and short with me.Also, definitely not as important, but the internet is terrible and the TV only has about 10-15 channels - not the cable you'd expect a hotel to carry.The shuttle to the airport was the nicest part of our stay.  Please take my word for it - don't believe the 5-star reviews that have been given on here (if you look closely, a couple of them came from the same person).  This hotel might save you money, but if you want something that doesn't make you feel like you're getting bed bugs or germs, or if you want to check out and get to your flight on time, don't stay here.More</t>
+  </si>
+  <si>
+    <t>wayneknight1980</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r468985829-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
@@ -879,6 +966,9 @@
 There were some housekeeping issues. The tub wasn't clean and had someone's hair in it.  There was a roach in the toilet. Not dead and floating. But alive on the side. I also didn't receive maid service. I left my room in the 9am hour and returned in the 5pm hour so there was plenty of time to get it done. On a two night stay I will usually tell them I don't need my room cleaned as long as I have enough towels. In this case I didn't feel I had enough towels for the two nights. I also wanted the trash taken out...Booked this hotel as a 2.5 star on Hotwire. Saw trip advisor had a better rating so I thought it could be good. I'm going to say I've booked over 100 hotel stays with Hotwire. I've only had two serious check in problems and both of them were at Extended Stay America hotels in Irving (different hotels). Front desk clerk said it was showing up as Expedia and declining Hotwire's payment. She called someone..I assume her manager and they couldn't get it either. I had to call Hotwire. Once I got her on the phone with Hotwire it was resolved quickly....but my check-in time was 25-30mins. When I checked out, the clerk said "Expedia will send you your receipt", so clearly they still have a problem with Hotwire showing up as Expedia in their system.There were some housekeeping issues. The tub wasn't clean and had someone's hair in it.  There was a roach in the toilet. Not dead and floating. But alive on the side. I also didn't receive maid service. I left my room in the 9am hour and returned in the 5pm hour so there was plenty of time to get it done. On a two night stay I will usually tell them I don't need my room cleaned as long as I have enough towels. In this case I didn't feel I had enough towels for the two nights. I also wanted the trash taken out since a roach had been spotted in the room. I also ran out of soap. Fortunately I had brought some of my own. I got an unexpected wake up when michael Jackson started blasting on the alarm clock at 6am. I didn't set that and couldn't figure out in my sleep how to turn it off so I unplugged it. I later discovered the microwave clock was an hour behind..I fixed that for them.The only other problem is you could hear people walking upstairs a lot. The ceiling seems to be thin.Other than that, the bed was clean and comfortable. Tv and wifi worked good. Staff was friendly. I'd say this would be a good hotel just for a quick overnight. I'd look elsewhere for an extended stay. I gave it 3 out of 5. I can't go down to 2 because I've stayed at two other extended stay hotels that are about 5 miles from this one and they are much worse.More</t>
   </si>
   <si>
+    <t>Lacie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r465706506-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1011,9 @@
     <t>You are greeted as if youre family, wonderful clean rooms, quiet property. Highly recommend this location. Was here for business. Anything you might need for your stay is offered for your needs. Next time in town will stay here again.More</t>
   </si>
   <si>
+    <t>tenjosh2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r442982518-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1041,9 @@
     <t>Great location: Room is very spacious and Clean...Front desk Lady was very professional and greeted us with respect..Check in was so convenient with no hassle..Thank you and we will be staying here in near future...Tenzin..More</t>
   </si>
   <si>
+    <t>complexclaims</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r430352496-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1113,9 @@
     <t>Karen and her front desk team of Sherry, Vivian, Keisha, Gloria,  are empowered by Jami to deliver  the level of customer service that causes me to go out of my way just to walk by the front desk.... to see a happy face and their smiles and personalities....so I don't miss my own home, so much. Truly a 5-Star experience at affordable rates!!!  My company covers my expenses,I could stay anywhere...but  here is "warmth" and  "nice".</t>
   </si>
   <si>
+    <t>bobgaddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r421815182-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1143,9 @@
     <t>The hotel staff is friendly and responsive.  My room was clean on arrival and housekeeping keeps it that way.  The location of the facility is convenient and quiet in spite of being very near DFW Airport.  Good value.More</t>
   </si>
   <si>
+    <t>HarleyJBatman29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r421586618-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1170,9 @@
     <t>The rooms are much nicer since they have been renovated. Most of the staff are nice and friendly always welcoming and helpful. Gloria and Karen are the best to ask for anything if they don't have what you need at the front they will be the ones to go find it for you like towels, toilet paper, tissues etc. They do have a shuttle to take you to Grapevine for shopping or entertainment. Their is also Dart bus stops close by so you can use public transit to get to the city. I don't advise checking in after 11pm.  If I had to pick a complaint about the overall stay it would be the noise from maids, they do not prop open the doors when they clean rooms and if their cleaning a room near yours you will hear the door banging and it rattles the walls at times.More</t>
   </si>
   <si>
+    <t>glengoings</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r411590235-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1200,9 @@
     <t>Good place. Nice staff. Gloria is an excellent staff. Good clean rooms. Would highly recommend. Will be back in the future. Not much around but has shuttle service that goes to grapevine where theres a lot to do and close to dallas. More</t>
   </si>
   <si>
+    <t>driveyourdevil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r410813103-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1117,6 +1225,9 @@
   </si>
   <si>
     <t>Staying a long period of time and from the start the staff have been very attentative and any issues are fixed in a reasonable amount of time. Gloria is always making sure everything is great when I come back to the hotel and always friendly when you ask a question. If you have the stay near the Dfw airport this is the place to stay!More</t>
+  </si>
+  <si>
+    <t>BunMyers</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r408808224-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
@@ -1639,43 +1750,47 @@
       <c r="A2" t="n">
         <v>37833</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>7200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1687,56 +1802,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37833</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>17806</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1748,56 +1867,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37833</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136017</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1809,56 +1932,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37833</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1880,56 +2007,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37833</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136019</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1941,56 +2072,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37833</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136020</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2012,56 +2147,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37833</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136021</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2073,56 +2212,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37833</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136022</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>104</v>
       </c>
-      <c r="K9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>98</v>
-      </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2144,56 +2287,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37833</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136023</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2215,56 +2362,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37833</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136024</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2286,56 +2437,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37833</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136025</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2357,56 +2512,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37833</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136026</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2422,56 +2581,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37833</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136027</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2489,56 +2652,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37833</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136028</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2560,56 +2727,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37833</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136029</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2625,56 +2796,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="X16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37833</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136030</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2696,56 +2871,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37833</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136031</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2767,56 +2946,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37833</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136032</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2828,56 +3011,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37833</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136033</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2899,56 +3086,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37833</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136034</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2970,56 +3161,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37833</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136035</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3041,38 +3236,42 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="X22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37833</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136036</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s"/>
       <c r="K23" t="s"/>
@@ -3089,51 +3288,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37833</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136037</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3145,56 +3345,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37833</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136038</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3216,56 +3420,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37833</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136039</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3287,56 +3495,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="X26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37833</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136040</v>
+      </c>
+      <c r="C27" t="s">
+        <v>274</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="K27" t="s">
+        <v>278</v>
+      </c>
+      <c r="L27" t="s">
+        <v>279</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>252</v>
       </c>
-      <c r="L27" t="s">
-        <v>253</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>229</v>
-      </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3358,56 +3570,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37833</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136026</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3425,56 +3641,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X28" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37833</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136041</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3488,50 +3708,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37833</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136042</v>
+      </c>
+      <c r="C30" t="s">
+        <v>299</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3551,50 +3775,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37833</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3608,50 +3836,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37833</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136043</v>
+      </c>
+      <c r="C32" t="s">
+        <v>314</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3671,50 +3903,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37833</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136026</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3732,56 +3968,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="X33" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37833</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136044</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="O34" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3793,56 +4033,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="X34" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="Y34" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37833</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136045</v>
+      </c>
+      <c r="C35" t="s">
+        <v>339</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="J35" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="O35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3860,56 +4104,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X35" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="Y35" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37833</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136026</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="J36" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -3927,47 +4175,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="X36" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="Y36" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37833</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136034</v>
+      </c>
+      <c r="C37" t="s">
+        <v>233</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -3986,50 +4238,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37833</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136046</v>
+      </c>
+      <c r="C38" t="s">
+        <v>363</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="J38" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4047,56 +4303,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="X38" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="Y38" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37833</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136047</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="J39" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="K39" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="L39" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="O39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4114,56 +4374,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="X39" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37833</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136048</v>
+      </c>
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="L40" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4175,56 +4439,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="X40" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="Y40" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37833</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136049</v>
+      </c>
+      <c r="C41" t="s">
+        <v>392</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="J41" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="K41" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="L41" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4242,56 +4510,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="X41" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="Y41" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37833</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136050</v>
+      </c>
+      <c r="C42" t="s">
+        <v>401</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="J42" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="K42" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="L42" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4311,7 +4583,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_215.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_215.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Todd N</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r590287778-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>275470</t>
+  </si>
+  <si>
+    <t>590287778</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Great Staff and loacation</t>
+  </si>
+  <si>
+    <t>This hotel is great for budget minded travelers looking for a clean room that is near to the Dallas-Ft Worth International Airport.  The propery offers a free 24 hour shuttle to and from the airport, and there is ample free parking at the location.  Tamin and Karen are just two of the outstanding staff there that will help you with a quick checkin and other assistance you might need duiring your stay.  The rooms are clean and comfortable with a full kitchen provided if you would like to prepare a meal.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is great for budget minded travelers looking for a clean room that is near to the Dallas-Ft Worth International Airport.  The propery offers a free 24 hour shuttle to and from the airport, and there is ample free parking at the location.  Tamin and Karen are just two of the outstanding staff there that will help you with a quick checkin and other assistance you might need duiring your stay.  The rooms are clean and comfortable with a full kitchen provided if you would like to prepare a meal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r556870701-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>556870701</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>A wonderful nights sleep</t>
+  </si>
+  <si>
+    <t>The staff is wonderful.. The rooms are clean .. The beds are comfortable.. Everything in the room works..my kids and husband love it.. They get in the room shower.. Kick their feet up fight over tv shows and im able to cook and save money while enjoying my familyMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>The staff is wonderful.. The rooms are clean .. The beds are comfortable.. Everything in the room works..my kids and husband love it.. They get in the room shower.. Kick their feet up fight over tv shows and im able to cook and save money while enjoying my familyMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r582640520-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>275470</t>
-  </si>
-  <si>
     <t>582640520</t>
   </si>
   <si>
@@ -183,18 +240,15 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded 4 days ago</t>
-  </si>
-  <si>
-    <t>Responded 4 days ago</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
   </si>
   <si>
     <t>Check in was easy...management and staff were awesome.  Room was clean and good value for price.  Location was convenient to airport and trains.  The airport was adequate but wait times can be long during peak times when picking up at the airport.More</t>
   </si>
   <si>
-    <t>Brenda L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r582544480-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -210,15 +264,9 @@
     <t>Oh man. Where do I begin? We walked into our room and it felt like a time machine taking us back to 1925. First, Everything is out of date. The Kitchen is old and all the cabinets have some sort of stain. Second, the room. We arrived around 12am, and man, how lucky were we. We checked in and brought everything to our rooms and after realizing we where in 1925, we decided to settle down for the night anyway. We pulled out the couch and looked for sheets and there were none in the room. And then to our dismay, the office itself was vacant. I mean what kind of a hotel closed it’s office? I have never been to a hotel which didn’t have at least one person in the office at all times. Anyway, we weren’t able to get sheets. This was around 12:20am when we looked. The kitchen comes with absolutely nothing. And even if it did come with utensils or anything, I wouldn’t trust it. The room itself smelled weird and just felt really old. The desk was placed weirdly and there was a random bulging square popping out randomly in the living room. It turned out that it was the TV in the bedroom which was poorly placed. The room was just poorly designed. Anyway, I have stayed in other extended stays, like the one in a Boston and it was very nice. But...Oh man. Where do I begin? We walked into our room and it felt like a time machine taking us back to 1925. First, Everything is out of date. The Kitchen is old and all the cabinets have some sort of stain. Second, the room. We arrived around 12am, and man, how lucky were we. We checked in and brought everything to our rooms and after realizing we where in 1925, we decided to settle down for the night anyway. We pulled out the couch and looked for sheets and there were none in the room. And then to our dismay, the office itself was vacant. I mean what kind of a hotel closed it’s office? I have never been to a hotel which didn’t have at least one person in the office at all times. Anyway, we weren’t able to get sheets. This was around 12:20am when we looked. The kitchen comes with absolutely nothing. And even if it did come with utensils or anything, I wouldn’t trust it. The room itself smelled weird and just felt really old. The desk was placed weirdly and there was a random bulging square popping out randomly in the living room. It turned out that it was the TV in the bedroom which was poorly placed. The room was just poorly designed. Anyway, I have stayed in other extended stays, like the one in a Boston and it was very nice. But this one, I wouldn’t tell my worst enemy to stay here.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Oh man. Where do I begin? We walked into our room and it felt like a time machine taking us back to 1925. First, Everything is out of date. The Kitchen is old and all the cabinets have some sort of stain. Second, the room. We arrived around 12am, and man, how lucky were we. We checked in and brought everything to our rooms and after realizing we where in 1925, we decided to settle down for the night anyway. We pulled out the couch and looked for sheets and there were none in the room. And then to our dismay, the office itself was vacant. I mean what kind of a hotel closed it’s office? I have never been to a hotel which didn’t have at least one person in the office at all times. Anyway, we weren’t able to get sheets. This was around 12:20am when we looked. The kitchen comes with absolutely nothing. And even if it did come with utensils or anything, I wouldn’t trust it. The room itself smelled weird and just felt really old. The desk was placed weirdly and there was a random bulging square popping out randomly in the living room. It turned out that it was the TV in the bedroom which was poorly placed. The room was just poorly designed. Anyway, I have stayed in other extended stays, like the one in a Boston and it was very nice. But...Oh man. Where do I begin? We walked into our room and it felt like a time machine taking us back to 1925. First, Everything is out of date. The Kitchen is old and all the cabinets have some sort of stain. Second, the room. We arrived around 12am, and man, how lucky were we. We checked in and brought everything to our rooms and after realizing we where in 1925, we decided to settle down for the night anyway. We pulled out the couch and looked for sheets and there were none in the room. And then to our dismay, the office itself was vacant. I mean what kind of a hotel closed it’s office? I have never been to a hotel which didn’t have at least one person in the office at all times. Anyway, we weren’t able to get sheets. This was around 12:20am when we looked. The kitchen comes with absolutely nothing. And even if it did come with utensils or anything, I wouldn’t trust it. The room itself smelled weird and just felt really old. The desk was placed weirdly and there was a random bulging square popping out randomly in the living room. It turned out that it was the TV in the bedroom which was poorly placed. The room was just poorly designed. Anyway, I have stayed in other extended stays, like the one in a Boston and it was very nice. But this one, I wouldn’t tell my worst enemy to stay here.More</t>
   </si>
   <si>
-    <t>grunst08</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r580913213-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -237,18 +285,15 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2018</t>
   </si>
   <si>
     <t>I would give a no star rating if I was able. The service received has been horrendous as well as finding bed bugs inside the room. Our groceries went bad and on top of it I spent roughly 7 hours training to get money back as they moved us to a different location and charged us more money. Michael Howard, the district manager chooses not to assist his guest and make their stay pleasant but to cause them to spend more time and more money to be able to pay his 100k salary. Feel free to use Airbnb as extended stay is not a good experience.More</t>
   </si>
   <si>
-    <t>290clarisas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r568202500-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -267,9 +312,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded March 23, 2018</t>
   </si>
   <si>
@@ -279,9 +321,6 @@
     <t>The young lady at the front desk is the only reason I did not rate this hotel as "Terrible." The only reason I stayed here was because all other hotels were booked. I arrived at 1am and when I went to sleep, I noticed old stains on the sheets. I believe they were washed; however, if you cannot get blood or food stains out, you should replace them. I slept on my jacket laid out on the bed. I was only there for a few hours.More</t>
   </si>
   <si>
-    <t>Cmouse92</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r557820872-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -312,9 +351,6 @@
     <t>We got a full suite with a kitchen for about 90$ a night. We looked at the pictures online of what the hotel looked like and it looked really nice! This location however did not look like those cute pictures. Also you only get house keeping if you’re here for more than a week, we’ve been here more than a week and no housekeeping showed up on the day they were supposed to. The breakfast at this location has no fruit, like in the pictures, so buy yourself some if staying here. There is free wifi, it’s not bad but if you want it faster you have to pay more. Basically you get what you pay for, it’s not terrible, but not what you expect from researching the hotel. More</t>
   </si>
   <si>
-    <t>182cherylt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r557672607-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -330,30 +366,15 @@
     <t>Great place to stay. Accommodations reasonable and rooms are updated. My only complaint was the soda machine was out of order. Get two machines.  I had to walk to get something to drink. The young lady at the desk provided us with water, but I need a coke after my run in with Motel 6. Don't stay at Motel 6 across from Extended Stay. Customer service is horrible. I will never making reservations again Booking.com!MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded February 1, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 1, 2018</t>
-  </si>
-  <si>
     <t>Great place to stay. Accommodations reasonable and rooms are updated. My only complaint was the soda machine was out of order. Get two machines.  I had to walk to get something to drink. The young lady at the desk provided us with water, but I need a coke after my run in with Motel 6. Don't stay at Motel 6 across from Extended Stay. Customer service is horrible. I will never making reservations again Booking.com!More</t>
   </si>
   <si>
-    <t>Vijay R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r556926665-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
     <t>556926665</t>
   </si>
   <si>
-    <t>01/28/2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">excellent service </t>
   </si>
   <si>
@@ -369,27 +390,6 @@
     <t>i stayed in extended stay america 7825 heathrow dr, irving texas, i liked ut very much, manager Tamim is extremely helpful and from yhe start  end, he took care of my me and family very much, he is very knowledgeable and he is vrry prompt in service, because of his service i will stay and recommend this hotel to my business partners, it is very clean and all services and friendly atmosphere.More</t>
   </si>
   <si>
-    <t>821olympias</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r556870701-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
-  </si>
-  <si>
-    <t>556870701</t>
-  </si>
-  <si>
-    <t>A wonderful nights sleep</t>
-  </si>
-  <si>
-    <t>The staff is wonderful.. The rooms are clean .. The beds are comfortable.. Everything in the room works..my kids and husband love it.. They get in the room shower.. Kick their feet up fight over tv shows and im able to cook and save money while enjoying my familyMoreShow less</t>
-  </si>
-  <si>
-    <t>The staff is wonderful.. The rooms are clean .. The beds are comfortable.. Everything in the room works..my kids and husband love it.. They get in the room shower.. Kick their feet up fight over tv shows and im able to cook and save money while enjoying my familyMore</t>
-  </si>
-  <si>
-    <t>keithbG193RP</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r556524793-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -417,9 +417,6 @@
     <t>Stay was good, property was quiet, car and personal belongings where never disturbed. Good safe place to stay and was very close to the work site, close enough to be walking distance if needed. I will be back soon to stay again!More</t>
   </si>
   <si>
-    <t>richardbK7947SW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r554897494-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>good  hotel  for the  value.  clean  rooms,  close to the airport  and   on time  shuttle  service.  Excellent  stff,  and  attend to your  needs  timely. Took  care of   any problems  that were encountered.  good  coffee  and  rolls in   the morning.More</t>
   </si>
   <si>
-    <t>984dougk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r554708899-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -471,9 +465,6 @@
     <t>This hotel provided a low price basic option served my needs. They had a room available at the last minute and all of the surrounding hotels seemed to be booked.  I was grateful they had a room available.More</t>
   </si>
   <si>
-    <t>mlandiak</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r554112026-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -498,9 +489,6 @@
     <t>They say they have a shuttle, but they don't. They use a service that stops at every terminal and 8 different hotels.  Waited 25 minutes for them to show up then ended up taking a cab because it would've taken another 25 min to get there. Take Uber.Got to hotel. Door locked.  Called and knocked for over 20 minutes. No sign of clerk. 2 other customers also waiting.  Called front desk # constantly and eventually rang through to answering service who couldn't reach the clerk either. We actually got worried and called the police, then she appears.Let us in with no explanation, no apology and no attempts to make it right. Horrifically bad customer service person to have on the front line.Room was fair. Wash cloths and hand towels were old and dirty. Too gross to use. Makes you think the entire place is unclean.Had OK experiences at other Extended Stay Hotels, but I'll never stay here again. You shouldn't either.More</t>
   </si>
   <si>
-    <t>thunderbooboo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r541466179-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -528,9 +516,6 @@
     <t>Come into town frequently as my company suggest this extended stay for 3 months assignments. Nice place to stay, all amenities you need to feel like home away from home. great location, awesome staff always so friendly and nice to make you feel welcomedMore</t>
   </si>
   <si>
-    <t>lindagT7260MW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r541051862-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -549,9 +534,6 @@
     <t>This had to be one the friendliest places I have been to. I received star service from the time I arrived. I was accommodated with the lowest floor due to my disability and limited walking. I recommend this to any and everyone. Very reasonable rates and outstanding service.More</t>
   </si>
   <si>
-    <t>Fern P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r539989609-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -576,9 +558,6 @@
     <t>the lady that checked me in was on the phone preoccupied with her personal problems and paid very little attention to me... she just went through the motions like a robot and I was glad to get my room key and finish up with herMore</t>
   </si>
   <si>
-    <t>CGray5858</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r536738882-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -606,9 +585,6 @@
     <t>Nice but would think twice about staying again. Friendly staff but expected a free continental breakfast and only received snacks coffee and tea. I do not eat or drink any of those. No hair dryer in bathroom and problems keeping the room a comfortable temperature.More</t>
   </si>
   <si>
-    <t>DrillSGTA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r533638468-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -633,9 +609,6 @@
     <t>I travel extensively for the military and this one isn't bad.  Trust me, I've stayed in a few ESA's that I swear were transient motels, but this one was okay.  Maybe because it is far out and off the bus route. I expected to hear a lot of airplane noise, being right by the airport, but it wasn't bad at all.More</t>
   </si>
   <si>
-    <t>mikeladd001</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r529740448-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -660,9 +633,6 @@
     <t>This extended stay is awful. The staff is very rude. Asking for anything for your room was like pulling teeth. Also, the staff has their family and friends come hangout with them during their shift. They also don’t like to be interrupted when talking on their cell phone at the front desk. Also, asking for the manager and I don’t know who that is because everytime I asked who the manager’s name was and when will they be in I was told they didn’t know.  When I ask for towels for my room there was none available. Like what hotel runs out of towels? Ask for toilet paper they were out! Seriously?!  So finally after a miserable stay I ask for a cart to move my stuff out the lady who worked 2nd shift on 10/01/17 was on her cell phone laughing and gossiping at the front desk asked her for one she rudely tells me she don’t know where one is and I will have to look around for one! Like seriously how about you get off your cell phone and look for it she laughed at me and then walked in the back office. So now I have written a official complaint and emailed to their VP. After calling there corporate number and speaking to someone who handles complaints apparently I am not the only one who has submitted complaints recently and they said they will be looking...This extended stay is awful. The staff is very rude. Asking for anything for your room was like pulling teeth. Also, the staff has their family and friends come hangout with them during their shift. They also don’t like to be interrupted when talking on their cell phone at the front desk. Also, asking for the manager and I don’t know who that is because everytime I asked who the manager’s name was and when will they be in I was told they didn’t know.  When I ask for towels for my room there was none available. Like what hotel runs out of towels? Ask for toilet paper they were out! Seriously?!  So finally after a miserable stay I ask for a cart to move my stuff out the lady who worked 2nd shift on 10/01/17 was on her cell phone laughing and gossiping at the front desk asked her for one she rudely tells me she don’t know where one is and I will have to look around for one! Like seriously how about you get off your cell phone and look for it she laughed at me and then walked in the back office. So now I have written a official complaint and emailed to their VP. After calling there corporate number and speaking to someone who handles complaints apparently I am not the only one who has submitted complaints recently and they said they will be looking into this location. The corporate office has moved me to a better location where staff is friendly and take great care of their customers and I am pleased. They also gave 3 nights for free and discount for the rest of my stay at the new location I am at. I hope they really take care of the business there because people are wasting their money for a horrible experience!More</t>
   </si>
   <si>
-    <t>joncW6225PC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r504177793-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -690,9 +660,6 @@
     <t>-Maid service did not provide towels, toilet paper or empty trash (All promised to us at reservation).-Front staff is horribly unfriendly, intolerant and rude (if they even show up). At one point I waited for an hour for staff for the front desk.-We requested towels and toilet paper THREE times and no one ever brought it. (eventually we bought our own).-One of the hotel towels had a brown stain.-Every time I requested anything or asked a question the front desk agents were rude. I'm not exaggerating. I'm extremely tolerant and understanding of customer service woes, but this place's culture seems to be centered around bare minimum (If That). Do not stay here.More</t>
   </si>
   <si>
-    <t>rameshk553</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r501901503-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -717,9 +684,6 @@
     <t>Was first assigned a room that was already occupied. When that was brought to the attention to the registration desk, was assigned a room that was also occupied. Third time was the charm, I guess. All in all a VERY unpleasant experience. More</t>
   </si>
   <si>
-    <t>forrestagnew</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r508611535-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -747,16 +711,31 @@
     <t>i could stay anywhere, at almost 4 times the rate, as this is a covered expense....yet this location is "home". they give a 5-star experience yet charge 25% of the price...consistantly...which is why I stay here almost 250 nights per yr going on 4 yrsMore</t>
   </si>
   <si>
-    <t>justinrN189ZA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r497420828-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
     <t>497420828</t>
   </si>
   <si>
-    <t>Sherri A</t>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>My home away from home</t>
+  </si>
+  <si>
+    <t>I stay at this property quite often. I like it because the rooms are nice and clean. Everything always works. The bathroom is more than enough space. The showers are clean as well as the bath tubs. The staff is always super friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded July 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2017</t>
+  </si>
+  <si>
+    <t>I stay at this property quite often. I like it because the rooms are nice and clean. Everything always works. The bathroom is more than enough space. The showers are clean as well as the bath tubs. The staff is always super friendly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r496021953-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
@@ -774,9 +753,6 @@
     <t>Our stay was the worst ever! Water had to be shut off a few times...electricity was off for a day...last but not least, cable is off NOW since yesterday with no explanation or estimated time on when it'll be turned back on!!! People are sitting outside in lawn chairs cause there's nothing else to do!! Management needs to do something about this, it's not good business!! This has been our temporary home for a year now....when we're finally able to leave for good, i will tell any and everybody i know, do yourself a favor, PLEASE DO NOT STAY AT EXTENDED STAY AMERICA!!!!MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Dallas - DFW Airport N., responded to this reviewResponded June 27, 2017</t>
   </si>
   <si>
@@ -786,9 +762,6 @@
     <t>Our stay was the worst ever! Water had to be shut off a few times...electricity was off for a day...last but not least, cable is off NOW since yesterday with no explanation or estimated time on when it'll be turned back on!!! People are sitting outside in lawn chairs cause there's nothing else to do!! Management needs to do something about this, it's not good business!! This has been our temporary home for a year now....when we're finally able to leave for good, i will tell any and everybody i know, do yourself a favor, PLEASE DO NOT STAY AT EXTENDED STAY AMERICA!!!!More</t>
   </si>
   <si>
-    <t>mirandak507</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r495440290-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -813,9 +786,6 @@
     <t>Check in process took forever, no housekeeping services for entire stay and I stayed 7 nights. Over authorized my credit card and never seemed to have clean towels or toiletries. Only positive thing they have going is that they are close to the airportMore</t>
   </si>
   <si>
-    <t>guestfromGranbury</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r495037591-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -840,9 +810,6 @@
     <t>I got a good room for a good price. It comes with full size refrigerator, microwave oven &amp; cook top.   If you're looking for a breakfast with your stay, these are not the hotels to stay at.  You get coffee &amp; maybe a muffin or granola bar.More</t>
   </si>
   <si>
-    <t>carrieo805</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r492803215-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -894,9 +861,6 @@
     <t>I stay at this property frequently and love it here, the manager Jami is outstanding and does whatever it takes to make you happy, and the whole staff is great. I have never had any issues at all at this location and will continues to stay here when I come into town.More</t>
   </si>
   <si>
-    <t>beka56459</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r473839045-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -913,9 +877,6 @@
   </si>
   <si>
     <t>Beware! Reservations not honored by this facility!  We had made a reservation several days in advance.  I called to confirm our reservation and I called on the day of the reservation to let the staff know that we would be a late arrival. I arrived at the hotel with my family and was told by staff that even though I had reserved with a credit card that they filled rooms first come first serve, they over book.  Another family arrived from the airport the same time as we did and their reservation was not honored either.  They were stuck with no transportation and all the other area hotels were filled.  We had to drive an hour away to get another room.  I will never stay at another property managed by this corporation.  I have never arrived at a hotel to be told that my reservation was not honored. I wonder how many other people they have stranded right out of the airport.  Luckily we were driving and were able to leave.  More</t>
-  </si>
-  <si>
-    <t>agirlwhotravels365</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r469929649-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
@@ -939,9 +900,6 @@
   <si>
     <t>Booked a night here for my husband and I this week.  When we got to the room, we started looking at the bed sheets and they had hair all over them, as if someone had slept in the sheets and they had not been washed.  We asked the lady at the front desk for a new set of clean sheets, totally willing to change them ourselves, but instead she put us in a different room... seemed extra nice.  We moved into our new room, and the sheets looked better; however, when I went to go to the bathroom, the toilet seat was dirty - leftover something from when someone else had used it, as well as what looked like toothpaste? smeared on it.  I had to wet some toilet paper and clean it myself just to use it without getting anything on me.  (Just a side note, not once did we see any cleaning staff during our stay.)
 The next morning, we got up and took our stuff down to the front lobby to check out.  However, the lobby room was locked and there was no one at the front desk.  The shuttle was supposed to pick us up at 4:55 a.m., and at this point (due to waiting) it was about 5:00 a.m..  We knocked and knocked and called the front desk phone, but no one came.  Eventually I turn around to see a man, who turned out to...Booked a night here for my husband and I this week.  When we got to the room, we started looking at the bed sheets and they had hair all over them, as if someone had slept in the sheets and they had not been washed.  We asked the lady at the front desk for a new set of clean sheets, totally willing to change them ourselves, but instead she put us in a different room... seemed extra nice.  We moved into our new room, and the sheets looked better; however, when I went to go to the bathroom, the toilet seat was dirty - leftover something from when someone else had used it, as well as what looked like toothpaste? smeared on it.  I had to wet some toilet paper and clean it myself just to use it without getting anything on me.  (Just a side note, not once did we see any cleaning staff during our stay.)The next morning, we got up and took our stuff down to the front lobby to check out.  However, the lobby room was locked and there was no one at the front desk.  The shuttle was supposed to pick us up at 4:55 a.m., and at this point (due to waiting) it was about 5:00 a.m..  We knocked and knocked and called the front desk phone, but no one came.  Eventually I turn around to see a man, who turned out to be an employee, slowly coming down the hallway, seeming as if he had been sleeping in one of the rooms.  He did not respond to any of my questions at first, and when I nicely asked for clarification on what he was doing (there was some confusion due to lack of communication), he responded extremely rude and short with me.Also, definitely not as important, but the internet is terrible and the TV only has about 10-15 channels - not the cable you'd expect a hotel to carry.The shuttle to the airport was the nicest part of our stay.  Please take my word for it - don't believe the 5-star reviews that have been given on here (if you look closely, a couple of them came from the same person).  This hotel might save you money, but if you want something that doesn't make you feel like you're getting bed bugs or germs, or if you want to check out and get to your flight on time, don't stay here.More</t>
-  </si>
-  <si>
-    <t>wayneknight1980</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r468985829-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
@@ -966,9 +924,6 @@
 There were some housekeeping issues. The tub wasn't clean and had someone's hair in it.  There was a roach in the toilet. Not dead and floating. But alive on the side. I also didn't receive maid service. I left my room in the 9am hour and returned in the 5pm hour so there was plenty of time to get it done. On a two night stay I will usually tell them I don't need my room cleaned as long as I have enough towels. In this case I didn't feel I had enough towels for the two nights. I also wanted the trash taken out...Booked this hotel as a 2.5 star on Hotwire. Saw trip advisor had a better rating so I thought it could be good. I'm going to say I've booked over 100 hotel stays with Hotwire. I've only had two serious check in problems and both of them were at Extended Stay America hotels in Irving (different hotels). Front desk clerk said it was showing up as Expedia and declining Hotwire's payment. She called someone..I assume her manager and they couldn't get it either. I had to call Hotwire. Once I got her on the phone with Hotwire it was resolved quickly....but my check-in time was 25-30mins. When I checked out, the clerk said "Expedia will send you your receipt", so clearly they still have a problem with Hotwire showing up as Expedia in their system.There were some housekeeping issues. The tub wasn't clean and had someone's hair in it.  There was a roach in the toilet. Not dead and floating. But alive on the side. I also didn't receive maid service. I left my room in the 9am hour and returned in the 5pm hour so there was plenty of time to get it done. On a two night stay I will usually tell them I don't need my room cleaned as long as I have enough towels. In this case I didn't feel I had enough towels for the two nights. I also wanted the trash taken out since a roach had been spotted in the room. I also ran out of soap. Fortunately I had brought some of my own. I got an unexpected wake up when michael Jackson started blasting on the alarm clock at 6am. I didn't set that and couldn't figure out in my sleep how to turn it off so I unplugged it. I later discovered the microwave clock was an hour behind..I fixed that for them.The only other problem is you could hear people walking upstairs a lot. The ceiling seems to be thin.Other than that, the bed was clean and comfortable. Tv and wifi worked good. Staff was friendly. I'd say this would be a good hotel just for a quick overnight. I'd look elsewhere for an extended stay. I gave it 3 out of 5. I can't go down to 2 because I've stayed at two other extended stay hotels that are about 5 miles from this one and they are much worse.More</t>
   </si>
   <si>
-    <t>Lacie F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r465706506-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +966,6 @@
     <t>You are greeted as if youre family, wonderful clean rooms, quiet property. Highly recommend this location. Was here for business. Anything you might need for your stay is offered for your needs. Next time in town will stay here again.More</t>
   </si>
   <si>
-    <t>tenjosh2003</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r442982518-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1041,9 +993,6 @@
     <t>Great location: Room is very spacious and Clean...Front desk Lady was very professional and greeted us with respect..Check in was so convenient with no hassle..Thank you and we will be staying here in near future...Tenzin..More</t>
   </si>
   <si>
-    <t>complexclaims</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r430352496-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1113,9 +1062,6 @@
     <t>Karen and her front desk team of Sherry, Vivian, Keisha, Gloria,  are empowered by Jami to deliver  the level of customer service that causes me to go out of my way just to walk by the front desk.... to see a happy face and their smiles and personalities....so I don't miss my own home, so much. Truly a 5-Star experience at affordable rates!!!  My company covers my expenses,I could stay anywhere...but  here is "warmth" and  "nice".</t>
   </si>
   <si>
-    <t>bobgaddy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r421815182-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1143,9 +1089,6 @@
     <t>The hotel staff is friendly and responsive.  My room was clean on arrival and housekeeping keeps it that way.  The location of the facility is convenient and quiet in spite of being very near DFW Airport.  Good value.More</t>
   </si>
   <si>
-    <t>HarleyJBatman29</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r421586618-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1170,9 +1113,6 @@
     <t>The rooms are much nicer since they have been renovated. Most of the staff are nice and friendly always welcoming and helpful. Gloria and Karen are the best to ask for anything if they don't have what you need at the front they will be the ones to go find it for you like towels, toilet paper, tissues etc. They do have a shuttle to take you to Grapevine for shopping or entertainment. Their is also Dart bus stops close by so you can use public transit to get to the city. I don't advise checking in after 11pm.  If I had to pick a complaint about the overall stay it would be the noise from maids, they do not prop open the doors when they clean rooms and if their cleaning a room near yours you will hear the door banging and it rattles the walls at times.More</t>
   </si>
   <si>
-    <t>glengoings</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r411590235-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1200,9 +1140,6 @@
     <t>Good place. Nice staff. Gloria is an excellent staff. Good clean rooms. Would highly recommend. Will be back in the future. Not much around but has shuttle service that goes to grapevine where theres a lot to do and close to dallas. More</t>
   </si>
   <si>
-    <t>driveyourdevil</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r410813103-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
   </si>
   <si>
@@ -1225,9 +1162,6 @@
   </si>
   <si>
     <t>Staying a long period of time and from the start the staff have been very attentative and any issues are fixed in a reasonable amount of time. Gloria is always making sure everything is great when I come back to the hotel and always friendly when you ask a question. If you have the stay near the Dfw airport this is the place to stay!More</t>
-  </si>
-  <si>
-    <t>BunMyers</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d275470-r408808224-Extended_Stay_America_Dallas_DFW_Airport_N-Irving_Texas.html</t>
@@ -1750,156 +1684,160 @@
       <c r="A2" t="n">
         <v>37833</v>
       </c>
-      <c r="B2" t="n">
-        <v>7200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37833</v>
       </c>
-      <c r="B3" t="n">
-        <v>17806</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37833</v>
       </c>
-      <c r="B4" t="n">
-        <v>136017</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
       </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>68</v>
@@ -1914,13 +1852,13 @@
         <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1932,39 +1870,35 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37833</v>
       </c>
-      <c r="B5" t="n">
-        <v>136018</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>77</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
       </c>
       <c r="I5" t="s">
         <v>78</v>
@@ -1979,88 +1913,74 @@
         <v>81</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37833</v>
       </c>
-      <c r="B6" t="n">
-        <v>136019</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
         <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" t="s">
-        <v>94</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2072,135 +1992,127 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37833</v>
       </c>
-      <c r="B7" t="n">
-        <v>136020</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37833</v>
       </c>
-      <c r="B8" t="n">
-        <v>136021</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2212,288 +2124,262 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37833</v>
       </c>
-      <c r="B9" t="n">
-        <v>136022</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37833</v>
       </c>
-      <c r="B10" t="n">
-        <v>136023</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37833</v>
       </c>
-      <c r="B11" t="n">
-        <v>136024</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37833</v>
       </c>
-      <c r="B12" t="n">
-        <v>136025</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
         <v>3</v>
@@ -2502,210 +2388,202 @@
         <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37833</v>
       </c>
-      <c r="B13" t="n">
-        <v>136026</v>
-      </c>
-      <c r="C13" t="s">
-        <v>151</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37833</v>
       </c>
-      <c r="B14" t="n">
-        <v>136027</v>
-      </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37833</v>
       </c>
-      <c r="B15" t="n">
-        <v>136028</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2713,12 +2591,8 @@
       <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2727,142 +2601,134 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37833</v>
       </c>
-      <c r="B16" t="n">
-        <v>136029</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="X16" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37833</v>
       </c>
-      <c r="B17" t="n">
-        <v>136030</v>
-      </c>
-      <c r="C17" t="s">
-        <v>186</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
       </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>3</v>
@@ -2871,66 +2737,62 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37833</v>
       </c>
-      <c r="B18" t="n">
-        <v>136031</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
       </c>
       <c r="R18" t="n">
         <v>4</v>
@@ -2940,215 +2802,203 @@
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37833</v>
       </c>
-      <c r="B19" t="n">
-        <v>136032</v>
-      </c>
-      <c r="C19" t="s">
-        <v>205</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37833</v>
       </c>
-      <c r="B20" t="n">
-        <v>136033</v>
-      </c>
-      <c r="C20" t="s">
-        <v>214</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37833</v>
       </c>
-      <c r="B21" t="n">
-        <v>136034</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3161,469 +3011,472 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37833</v>
       </c>
-      <c r="B22" t="n">
-        <v>136035</v>
-      </c>
-      <c r="C22" t="s">
-        <v>233</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37833</v>
       </c>
-      <c r="B23" t="n">
-        <v>136036</v>
-      </c>
-      <c r="C23" t="s">
-        <v>243</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>245</v>
-      </c>
-      <c r="J23" t="s"/>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>228</v>
+      </c>
+      <c r="X23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37833</v>
       </c>
-      <c r="B24" t="n">
-        <v>136037</v>
-      </c>
-      <c r="C24" t="s">
-        <v>246</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37833</v>
       </c>
-      <c r="B25" t="n">
-        <v>136038</v>
-      </c>
-      <c r="C25" t="s">
-        <v>256</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>94</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37833</v>
       </c>
-      <c r="B26" t="n">
-        <v>136039</v>
-      </c>
-      <c r="C26" t="s">
-        <v>265</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
         <v>3</v>
       </c>
-      <c r="N26" t="s">
-        <v>252</v>
-      </c>
-      <c r="O26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37833</v>
       </c>
-      <c r="B27" t="n">
-        <v>136040</v>
-      </c>
-      <c r="C27" t="s">
-        <v>274</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
       <c r="I27" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37833</v>
       </c>
-      <c r="B28" t="n">
-        <v>136026</v>
-      </c>
-      <c r="C28" t="s">
-        <v>160</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
       <c r="I28" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3631,8 +3484,12 @@
       <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3641,321 +3498,305 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="X28" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37833</v>
       </c>
-      <c r="B29" t="n">
-        <v>136041</v>
-      </c>
-      <c r="C29" t="s">
-        <v>292</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s">
-        <v>64</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>278</v>
+      </c>
+      <c r="X29" t="s">
+        <v>279</v>
+      </c>
       <c r="Y29" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37833</v>
       </c>
-      <c r="B30" t="n">
-        <v>136042</v>
-      </c>
-      <c r="C30" t="s">
-        <v>299</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
       <c r="I30" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s">
-        <v>64</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37833</v>
       </c>
-      <c r="B31" t="n">
-        <v>1034</v>
-      </c>
-      <c r="C31" t="s">
-        <v>307</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
         <v>47</v>
       </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
       <c r="I31" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37833</v>
       </c>
-      <c r="B32" t="n">
-        <v>136043</v>
-      </c>
-      <c r="C32" t="s">
-        <v>314</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
       <c r="I32" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37833</v>
       </c>
-      <c r="B33" t="n">
-        <v>136026</v>
-      </c>
-      <c r="C33" t="s">
-        <v>160</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
         <v>47</v>
       </c>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
       <c r="I33" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>83</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>5</v>
@@ -3967,205 +3808,189 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>326</v>
-      </c>
-      <c r="X33" t="s">
-        <v>327</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37833</v>
       </c>
-      <c r="B34" t="n">
-        <v>136044</v>
-      </c>
-      <c r="C34" t="s">
-        <v>329</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
         <v>47</v>
       </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
       <c r="I34" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s">
-        <v>94</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="X34" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="Y34" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37833</v>
       </c>
-      <c r="B35" t="n">
-        <v>136045</v>
-      </c>
-      <c r="C35" t="s">
-        <v>339</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
         <v>47</v>
       </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
       <c r="I35" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="X35" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="Y35" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37833</v>
       </c>
-      <c r="B36" t="n">
-        <v>136026</v>
-      </c>
-      <c r="C36" t="s">
-        <v>160</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
         <v>47</v>
       </c>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
       <c r="I36" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4175,415 +4000,458 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37833</v>
       </c>
-      <c r="B37" t="n">
-        <v>136034</v>
-      </c>
-      <c r="C37" t="s">
-        <v>233</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
         <v>47</v>
       </c>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
       <c r="I37" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+      <c r="N37" t="s">
+        <v>337</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>338</v>
+      </c>
+      <c r="X37" t="s">
+        <v>339</v>
+      </c>
       <c r="Y37" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37833</v>
       </c>
-      <c r="B38" t="n">
-        <v>136046</v>
-      </c>
-      <c r="C38" t="s">
-        <v>363</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
         <v>47</v>
       </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
       <c r="I38" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s">
-        <v>369</v>
-      </c>
-      <c r="O38" t="s">
-        <v>83</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>370</v>
-      </c>
-      <c r="X38" t="s">
-        <v>371</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37833</v>
       </c>
-      <c r="B39" t="n">
-        <v>136047</v>
-      </c>
-      <c r="C39" t="s">
-        <v>373</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
         <v>47</v>
       </c>
-      <c r="H39" t="s">
-        <v>48</v>
-      </c>
       <c r="I39" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="K39" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
         <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="X39" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="Y39" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37833</v>
       </c>
-      <c r="B40" t="n">
-        <v>136048</v>
-      </c>
-      <c r="C40" t="s">
-        <v>382</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
         <v>47</v>
       </c>
-      <c r="H40" t="s">
-        <v>48</v>
-      </c>
       <c r="I40" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="J40" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="K40" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="X40" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="Y40" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37833</v>
       </c>
-      <c r="B41" t="n">
-        <v>136049</v>
-      </c>
-      <c r="C41" t="s">
-        <v>392</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
         <v>47</v>
       </c>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
       <c r="I41" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="J41" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="O41" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="X41" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="Y41" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37833</v>
       </c>
-      <c r="B42" t="n">
-        <v>136050</v>
-      </c>
-      <c r="C42" t="s">
-        <v>401</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
         <v>47</v>
       </c>
-      <c r="H42" t="s">
-        <v>48</v>
-      </c>
       <c r="I42" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>377</v>
+      </c>
+      <c r="X42" t="s">
+        <v>378</v>
+      </c>
       <c r="Y42" t="s">
-        <v>407</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37833</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43" t="s">
+        <v>382</v>
+      </c>
+      <c r="K43" t="s">
+        <v>383</v>
+      </c>
+      <c r="L43" t="s">
+        <v>384</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" t="s">
+        <v>107</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
